--- a/biology/Zoologie/Bouvier_des_Ardennes/Bouvier_des_Ardennes.xlsx
+++ b/biology/Zoologie/Bouvier_des_Ardennes/Bouvier_des_Ardennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bouvier des Ardennes est une race de chiens originaire de Belgique. La race est utilisée comme un bouvier et chien de garde. Un mâle adulte est d'environ 56 à 62 cm de haut, une femelle d'environ 52 à 56 cm. Le poids varie entre 22 et 28 kg pour les femelles et de 28 à 35 kg pour les mâles.
 Ce sont des chiens très rustiques qui naissent parfois anoures (sans queue).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le passé, tous les chiens qui travaillaient avec le bétail étaient appelés « Bouvier ». Chaque région avait son propre type. Ces chiens étaient prisés comme chiens de bouvier et chiens de garde. Avec la motorisation, les besoins de chiens de berger et de bouvier ont diminué.
 Ce chien de ferme existe depuis des siècles et le Bouvier des Ardennes avec son apparence actuelle depuis le début du XXe siècle.
@@ -546,7 +560,9 @@
           <t>Caractère du Bouvier des Ardennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chien méfiant (son histoire lui a appris à se méfier...) il ne fonce pas tête baissée. Très courageux et adorable avec les enfants, il est un chien de garde et défense idéal. C'est un chien qui a été sélectionné pour travailler, et il aime ça. Constamment en mouvement autour de son maître il est attentif à ce qu'on attend de lui. Infatigable il peut travailler dans les pires conditions. 
 </t>
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Encyclopédie illustrée « Les Chiens » adaptation française de Bruno Porlier. Gründ 1997
 Larousse du chien (édition 1974)[réf. incomplète]
